--- a/factor/scc_test.xlsx
+++ b/factor/scc_test.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dense_traffic_emi\factor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A12EEE49-668C-486A-87F8-87E298EC6231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DCAB26-E417-4229-BC44-A31125598BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21000" yWindow="2115" windowWidth="17685" windowHeight="13950" xr2:uid="{206275D4-157B-47DB-A2AB-B6E73A573DE2}"/>
+    <workbookView xWindow="-33960" yWindow="2895" windowWidth="25590" windowHeight="11340" xr2:uid="{206275D4-157B-47DB-A2AB-B6E73A573DE2}"/>
   </bookViews>
   <sheets>
     <sheet name="scc" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">scc!$A$1:$D$103</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -138,7 +141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -298,6 +301,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -724,8 +735,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1106,13 +1123,13 @@
   <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A2:A19"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1145,55 +1162,56 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>7010100</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>7010101</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>7010102</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>7010103</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1490,55 +1508,56 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>7030100</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="2">
         <v>7030101</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="2">
         <v>7030102</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>7030103</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1896,41 +1915,42 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>7050100</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="2">
         <v>7050101</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="2">
         <v>7050102</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="2" t="s">
         <v>7</v>
       </c>
     </row>
